--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Machine Learning\Project Kelompok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rizky Ely\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21A36D-340F-41B4-8659-F24F2F019A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496632BE-4EB6-40FE-8D62-2662DFA98494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{365BACA4-A82A-4B60-BC0D-EC17E2D5FAAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{365BACA4-A82A-4B60-BC0D-EC17E2D5FAAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Jobdesk List</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>28/4/2021</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,13 +91,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -158,6 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,18 +482,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -504,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,9 +523,11 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -534,7 +542,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,7 +557,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -564,13 +572,13 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
